--- a/biology/Botanique/Gilberto_N._Morillo/Gilberto_N._Morillo.xlsx
+++ b/biology/Botanique/Gilberto_N._Morillo/Gilberto_N._Morillo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilberto N. Morillo est un botaniste vénézuélien né en 1944.
 </t>
@@ -511,15 +523,86 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1995, il a été choisi par Herbario Forestal (MER) à l'université de Los Andes, à Merida (Vénézuéla). Il a déjà été conservateur de l'herbier de la Faculdad de Farmacia (MERF), de la même université.
-Espèces et nouveaux genres
-Marsdenia manarae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995, il a été choisi par Herbario Forestal (MER) à l'université de Los Andes, à Merida (Vénézuéla). Il a déjà été conservateur de l'herbier de la Faculdad de Farmacia (MERF), de la même université.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gilberto_N._Morillo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilberto_N._Morillo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces et nouveaux genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marsdenia manarae
 Tillandsia santieusebii et Oliva-Estève
-Fontellaea
-Publications
-Gilberto Morillo, Benito Briceño, Juan f. Silva 2010. Botánica y ecología de las Monocotiledóneas de los Páramos en Venezuela. Volumen 1. Editor Instituto de Ciencias Ambientales y Ecológicas, Universidad de Los Andes, Facultad de Ciencias. 296 pp.  (ISBN 980-11-1363-4)
+Fontellaea</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gilberto_N._Morillo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilberto_N._Morillo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gilberto Morillo, Benito Briceño, Juan f. Silva 2010. Botánica y ecología de las Monocotiledóneas de los Páramos en Venezuela. Volumen 1. Editor Instituto de Ciencias Ambientales y Ecológicas, Universidad de Los Andes, Facultad de Ciencias. 296 pp.  (ISBN 980-11-1363-4)
 Benito Briceño, Gilberto Morillo. 2006. Catálogo de las plantas con flores de los Páramos de Venezuela: Parte U. Monocotiledóneas (Liliopsida). Acta Botanica Venezuelica (es). 29 (1): 89-134
 Benito Briceño, Gilberto Morillo. 2002. Catálogo abreviado de las plantas con flores de los páramos de Venezuela. Parte I. Dico-tiledóneas (Magnoliopsida). Acta Botanica Venezuelica (es). 25 (1): 1-46
 Gilberto Morillo. 1987. Flora del Parque Nacional Henri Pittier. Editor N. Martínez, 39 pp.
